--- a/Saved_file/EM002/2026_02/work_logs_EM002_2026_02.xlsx
+++ b/Saved_file/EM002/2026_02/work_logs_EM002_2026_02.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-26 16:20:55</t>
+          <t>2026-02-08 09:00:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.715</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260226_000</t>
+          <t>SESS_20260208_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -511,34 +511,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16:20:55</t>
+          <t>09:00:45</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-28 13:29:02</t>
+          <t>2026-02-18 08:00:27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.373</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260228_001</t>
+          <t>SESS_20260218_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -561,34 +561,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>13:29:02</t>
+          <t>08:00:27</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-20 16:19:13</t>
+          <t>2026-02-03 19:20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.339</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260220_002</t>
+          <t>SESS_20260203_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -611,34 +611,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:19:13</t>
+          <t>19:20:45</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-02 18:25:16</t>
+          <t>2026-02-27 14:33:59</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.728</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260202_003</t>
+          <t>SESS_20260227_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -661,34 +661,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>18:25:16</t>
+          <t>14:33:59</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-06 08:49:44</t>
+          <t>2026-02-05 11:54:50</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.752</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260206_004</t>
+          <t>SESS_20260205_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -711,34 +711,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08:49:44</t>
+          <t>11:54:50</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-08 14:42:08</t>
+          <t>2026-02-06 09:24:50</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.870</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260208_005</t>
+          <t>SESS_20260206_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -761,34 +761,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>14:42:08</t>
+          <t>09:24:50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-27 16:14:51</t>
+          <t>2026-02-05 12:52:43</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.443</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20260227_006</t>
+          <t>SESS_20260205_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -811,34 +811,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>16:14:51</t>
+          <t>12:52:43</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-27 19:48:14</t>
+          <t>2026-02-07 12:22:59</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.841</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20260227_007</t>
+          <t>SESS_20260207_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -861,34 +861,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>19:48:14</t>
+          <t>12:22:59</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-28 17:09:16</t>
+          <t>2026-02-20 15:13:09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.436</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20260228_008</t>
+          <t>SESS_20260220_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -911,34 +911,34 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>17:09:16</t>
+          <t>15:13:09</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-15 13:19:12</t>
+          <t>2026-02-23 12:40:21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.215</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20260215_009</t>
+          <t>SESS_20260223_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -961,34 +961,34 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>13:19:12</t>
+          <t>12:40:21</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-16 09:18:43</t>
+          <t>2026-02-11 12:19:33</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.369</t>
+          <t>Mouse anomaly detected - Score: 0.822</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20260216_010</t>
+          <t>SESS_20260211_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>09:18:43</t>
+          <t>12:19:33</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-10 09:46:24</t>
+          <t>2026-02-10 19:38:26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>09:46:24</t>
+          <t>19:38:26</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1078,17 +1078,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-15 19:06:52</t>
+          <t>2026-02-10 13:19:23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.880</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SESS_20260215_012</t>
+          <t>SESS_20260210_012</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1111,34 +1111,34 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>19:06:52</t>
+          <t>13:19:23</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-19 15:28:53</t>
+          <t>2026-02-16 16:19:41</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.710</t>
+          <t>Mouse anomaly detected - Score: 0.740</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SESS_20260219_013</t>
+          <t>SESS_20260216_013</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15:28:53</t>
+          <t>16:19:41</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1178,17 +1178,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-02-15 17:34:44</t>
+          <t>2026-02-20 09:43:42</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.207</t>
+          <t>Face verification failed - Similarity: 0.385</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SESS_20260215_014</t>
+          <t>SESS_20260220_014</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>17:34:44</t>
+          <t>09:43:42</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-02-19 19:28:21</t>
+          <t>2026-02-06 18:03:56</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.292</t>
+          <t>Face verification failed - Similarity: 0.461</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SESS_20260219_015</t>
+          <t>SESS_20260206_015</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19:28:21</t>
+          <t>18:03:56</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1278,17 +1278,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-03 12:54:54</t>
+          <t>2026-02-15 14:39:03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.231</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SESS_20260203_016</t>
+          <t>SESS_20260215_016</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1311,34 +1311,34 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12:54:54</t>
+          <t>14:39:03</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-02-11 15:39:44</t>
+          <t>2026-02-24 17:35:35</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.918</t>
+          <t>Face verification failed - Similarity: 0.291</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SESS_20260211_017</t>
+          <t>SESS_20260224_017</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1361,34 +1361,34 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>15:39:44</t>
+          <t>17:35:35</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-02-14 17:09:39</t>
+          <t>2026-02-12 11:37:17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.242</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SESS_20260214_018</t>
+          <t>SESS_20260212_018</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1411,34 +1411,34 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>17:09:39</t>
+          <t>11:37:17</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-02-25 17:54:31</t>
+          <t>2026-02-01 11:54:14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.755</t>
+          <t>Face verification failed - Similarity: 0.286</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SESS_20260225_019</t>
+          <t>SESS_20260201_019</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1461,34 +1461,34 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17:54:31</t>
+          <t>11:54:14</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-02-27 12:00:37</t>
+          <t>2026-02-06 17:48:54</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.809</t>
+          <t>Face verification failed - Similarity: 0.332</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SESS_20260227_020</t>
+          <t>SESS_20260206_020</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1511,34 +1511,34 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>12:00:37</t>
+          <t>17:48:54</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-02-13 16:41:29</t>
+          <t>2026-02-18 12:16:31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.900</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SESS_20260213_021</t>
+          <t>SESS_20260218_021</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1561,34 +1561,34 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16:41:29</t>
+          <t>12:16:31</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-02-01 17:24:05</t>
+          <t>2026-02-14 08:56:13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.471</t>
+          <t>Face verification failed - Similarity: 0.380</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SESS_20260201_022</t>
+          <t>SESS_20260214_022</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>17:24:05</t>
+          <t>08:56:13</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1628,17 +1628,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-02-15 16:42:40</t>
+          <t>2026-02-18 19:02:01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.747</t>
+          <t>Mouse anomaly detected - Score: 0.716</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SESS_20260215_023</t>
+          <t>SESS_20260218_023</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16:42:40</t>
+          <t>19:02:01</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1678,17 +1678,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-02-02 08:14:05</t>
+          <t>2026-02-25 18:27:01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.744</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SESS_20260202_024</t>
+          <t>SESS_20260225_024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1711,34 +1711,34 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>08:14:05</t>
+          <t>18:27:01</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-02-01 15:57:51</t>
+          <t>2026-02-10 13:00:44</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.382</t>
+          <t>Mouse anomaly detected - Score: 0.740</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SESS_20260201_025</t>
+          <t>SESS_20260210_025</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1761,34 +1761,34 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15:57:51</t>
+          <t>13:00:44</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-02-09 16:42:43</t>
+          <t>2026-02-09 08:16:03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.418</t>
+          <t>Face verification failed - Similarity: 0.311</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>16:42:43</t>
+          <t>08:16:03</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1828,17 +1828,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-02-14 09:16:50</t>
+          <t>2026-02-17 10:12:41</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.230</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SESS_20260214_027</t>
+          <t>SESS_20260217_027</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1861,34 +1861,34 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09:16:50</t>
+          <t>10:12:41</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-02-17 15:52:16</t>
+          <t>2026-02-12 11:37:48</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.811</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SESS_20260217_028</t>
+          <t>SESS_20260212_028</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1911,34 +1911,34 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15:52:16</t>
+          <t>11:37:48</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-02-23 19:03:11</t>
+          <t>2026-02-22 15:41:54</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.820</t>
+          <t>Mouse anomaly detected - Score: 0.733</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SESS_20260223_029</t>
+          <t>SESS_20260222_029</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>19:03:11</t>
+          <t>15:41:54</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1978,17 +1978,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-02-12 10:21:40</t>
+          <t>2026-02-07 12:05:43</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.766</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SESS_20260212_030</t>
+          <t>SESS_20260207_030</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2011,34 +2011,34 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10:21:40</t>
+          <t>12:05:43</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-02-14 16:40:08</t>
+          <t>2026-02-09 12:54:24</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.492</t>
+          <t>Face verification failed - Similarity: 0.483</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SESS_20260214_031</t>
+          <t>SESS_20260209_031</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16:40:08</t>
+          <t>12:54:24</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2078,17 +2078,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-02-04 09:27:09</t>
+          <t>2026-02-06 14:33:04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.480</t>
+          <t>Face verification failed - Similarity: 0.429</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SESS_20260204_032</t>
+          <t>SESS_20260206_032</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2111,12 +2111,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>09:27:09</t>
+          <t>14:33:04</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2128,12 +2128,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-02-24 10:16:57</t>
+          <t>2026-02-04 15:24:59</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SESS_20260224_033</t>
+          <t>SESS_20260204_033</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10:16:57</t>
+          <t>15:24:59</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2178,17 +2178,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-02-14 18:19:52</t>
+          <t>2026-02-14 15:15:30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.745</t>
+          <t>Face verification failed - Similarity: 0.452</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -2216,29 +2216,29 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18:19:52</t>
+          <t>15:15:30</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-02-21 12:01:11</t>
+          <t>2026-02-11 13:40:30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.936</t>
+          <t>Mouse anomaly detected - Score: 0.706</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SESS_20260221_035</t>
+          <t>SESS_20260211_035</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>12:01:11</t>
+          <t>13:40:30</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2278,17 +2278,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-02-11 15:10:13</t>
+          <t>2026-02-03 15:58:54</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.791</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SESS_20260211_036</t>
+          <t>SESS_20260203_036</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2311,467 +2311,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>15:10:13</t>
+          <t>15:58:54</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2026-02-28 08:29:21</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>RAPID_PAUSE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>SESS_20260228_037</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2026-02-28</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>08:29:21</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
           <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2026-02-15 10:58:23</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>FACE_MISMATCH</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.258</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>SESS_20260215_038</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>10:58:23</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2026-02-05 10:46:47</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>BEHAVIOR_ANOMALY</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.755</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>SESS_20260205_039</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>10:46:47</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2026-02-23 13:31:53</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>FACE_VERIFICATION</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.491</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>SESS_20260223_040</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>13:31:53</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2026-02-27 10:31:38</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>BEHAVIOR_ANOMALY</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.929</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>SESS_20260227_041</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>10:31:38</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2026-02-15 08:55:45</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>INACTIVITY_ALERT</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>SESS_20260215_042</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>08:55:45</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2026-02-21 08:05:22</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ANOMALY_DETECTED</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.777</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>SESS_20260221_043</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2026-02-21</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>08:05:22</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2026-02-19 18:02:30</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>RAPID_PAUSE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>SESS_20260219_044</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>18:02:30</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2026-02-19 15:37:46</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>LIVENESS_CHECK</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.267</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>SESS_20260219_045</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>15:37:46</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Face</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-01 11:42:15</t>
+          <t>2026-02-01 11:14:04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2939,7 +2489,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.482</t>
+          <t>Mouse session - Score: 0.607</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2967,7 +2517,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:14:04</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2976,58 +2526,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>20102</v>
+        <v>11100</v>
       </c>
       <c r="L2" t="n">
-        <v>20102</v>
+        <v>11100</v>
       </c>
       <c r="M2" t="n">
-        <v>25910.71</v>
+        <v>28254.77</v>
       </c>
       <c r="N2" t="n">
-        <v>15546.42</v>
+        <v>16952.86</v>
       </c>
       <c r="O2" t="n">
-        <v>10364.28</v>
+        <v>11301.91</v>
       </c>
       <c r="P2" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R2" t="n">
-        <v>166.66</v>
+        <v>86.55</v>
       </c>
       <c r="S2" t="n">
-        <v>155.47</v>
+        <v>326.45</v>
       </c>
       <c r="T2" t="n">
-        <v>13.55</v>
+        <v>11.29</v>
       </c>
       <c r="U2" t="n">
-        <v>93.28</v>
+        <v>195.87</v>
       </c>
       <c r="V2" t="n">
-        <v>62.19</v>
+        <v>130.58</v>
       </c>
       <c r="W2" t="n">
-        <v>27.76</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>19.73</v>
+        <v>27.53</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.66</v>
+        <v>86.55</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.482</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-01 15:08:15</t>
+          <t>2026-02-01 11:47:11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3037,7 +2587,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.497</t>
+          <t>Mouse session - Score: 0.522</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3065,7 +2615,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15:08:15</t>
+          <t>11:47:11</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -3074,58 +2624,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>25706</v>
+        <v>26731</v>
       </c>
       <c r="L3" t="n">
-        <v>25706</v>
+        <v>26731</v>
       </c>
       <c r="M3" t="n">
-        <v>30611.25</v>
+        <v>13235.82</v>
       </c>
       <c r="N3" t="n">
-        <v>18366.75</v>
+        <v>7941.49</v>
       </c>
       <c r="O3" t="n">
-        <v>12244.5</v>
+        <v>5294.33</v>
       </c>
       <c r="P3" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="R3" t="n">
-        <v>91.89</v>
+        <v>94</v>
       </c>
       <c r="S3" t="n">
-        <v>333.12</v>
+        <v>140.81</v>
       </c>
       <c r="T3" t="n">
-        <v>37.83</v>
+        <v>22.08</v>
       </c>
       <c r="U3" t="n">
-        <v>199.87</v>
+        <v>84.48</v>
       </c>
       <c r="V3" t="n">
-        <v>133.25</v>
+        <v>56.32</v>
       </c>
       <c r="W3" t="n">
-        <v>14.09</v>
+        <v>9.74</v>
       </c>
       <c r="X3" t="n">
-        <v>12.23</v>
+        <v>26.13</v>
       </c>
       <c r="Y3" t="n">
-        <v>91.89</v>
+        <v>94</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.497</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-01 13:18:25</t>
+          <t>2026-02-01 09:45:06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3135,7 +2685,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.646</t>
+          <t>Mouse session - Score: 0.527</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3163,7 +2713,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>13:18:25</t>
+          <t>09:45:06</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3172,58 +2722,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>16939</v>
+        <v>29124</v>
       </c>
       <c r="L4" t="n">
-        <v>16939</v>
+        <v>29124</v>
       </c>
       <c r="M4" t="n">
-        <v>13913</v>
+        <v>23471.87</v>
       </c>
       <c r="N4" t="n">
-        <v>8347.799999999999</v>
+        <v>14083.12</v>
       </c>
       <c r="O4" t="n">
-        <v>5565.2</v>
+        <v>9388.75</v>
       </c>
       <c r="P4" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R4" t="n">
-        <v>142.05</v>
+        <v>136.16</v>
       </c>
       <c r="S4" t="n">
-        <v>97.94</v>
+        <v>172.39</v>
       </c>
       <c r="T4" t="n">
-        <v>8.869999999999999</v>
+        <v>42.13</v>
       </c>
       <c r="U4" t="n">
-        <v>58.76</v>
+        <v>103.43</v>
       </c>
       <c r="V4" t="n">
-        <v>39.18</v>
+        <v>68.95</v>
       </c>
       <c r="W4" t="n">
-        <v>21.42</v>
+        <v>6.28</v>
       </c>
       <c r="X4" t="n">
-        <v>8.640000000000001</v>
+        <v>7.45</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.05</v>
+        <v>136.16</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.646</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-02 16:54:23</t>
+          <t>2026-02-02 14:55:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3233,7 +2783,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.523</t>
+          <t>Mouse session - Score: 0.528</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3261,7 +2811,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16:54:23</t>
+          <t>14:55:15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3270,58 +2820,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>7846</v>
+        <v>5886</v>
       </c>
       <c r="L5" t="n">
-        <v>7846</v>
+        <v>5886</v>
       </c>
       <c r="M5" t="n">
-        <v>38366.37</v>
+        <v>36785.9</v>
       </c>
       <c r="N5" t="n">
-        <v>23019.82</v>
+        <v>22071.54</v>
       </c>
       <c r="O5" t="n">
-        <v>15346.55</v>
+        <v>14714.36</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R5" t="n">
-        <v>137.89</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>278.24</v>
+        <v>388.42</v>
       </c>
       <c r="T5" t="n">
-        <v>48.33</v>
+        <v>40.23</v>
       </c>
       <c r="U5" t="n">
-        <v>166.95</v>
+        <v>233.05</v>
       </c>
       <c r="V5" t="n">
-        <v>111.3</v>
+        <v>155.37</v>
       </c>
       <c r="W5" t="n">
-        <v>27.26</v>
+        <v>11.94</v>
       </c>
       <c r="X5" t="n">
-        <v>10.97</v>
+        <v>23.63</v>
       </c>
       <c r="Y5" t="n">
-        <v>137.89</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.523</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-02 09:30:38</t>
+          <t>2026-02-02 09:56:31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3331,7 +2881,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.466</t>
+          <t>Mouse session - Score: 0.802</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3346,11 +2896,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3359,7 +2909,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09:30:38</t>
+          <t>09:56:31</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3368,58 +2918,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>11932</v>
+        <v>27817</v>
       </c>
       <c r="L6" t="n">
-        <v>11932</v>
+        <v>27817</v>
       </c>
       <c r="M6" t="n">
-        <v>23928.19</v>
+        <v>14367.72</v>
       </c>
       <c r="N6" t="n">
-        <v>14356.91</v>
+        <v>8620.629999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>9571.280000000001</v>
+        <v>5747.09</v>
       </c>
       <c r="P6" t="n">
         <v>7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R6" t="n">
-        <v>60.63</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>394.66</v>
+        <v>179.02</v>
       </c>
       <c r="T6" t="n">
-        <v>49.64</v>
+        <v>48.14</v>
       </c>
       <c r="U6" t="n">
-        <v>236.8</v>
+        <v>107.41</v>
       </c>
       <c r="V6" t="n">
-        <v>157.86</v>
+        <v>71.61</v>
       </c>
       <c r="W6" t="n">
-        <v>17.35</v>
+        <v>25.18</v>
       </c>
       <c r="X6" t="n">
-        <v>13.77</v>
+        <v>3.06</v>
       </c>
       <c r="Y6" t="n">
-        <v>60.63</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.466</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-02 11:53:59</t>
+          <t>2026-02-02 16:43:17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3429,7 +2979,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.807</t>
+          <t>Mouse session - Score: 0.878</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3457,7 +3007,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11:53:59</t>
+          <t>16:43:17</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3466,58 +3016,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>14336</v>
+        <v>18612</v>
       </c>
       <c r="L7" t="n">
-        <v>14336</v>
+        <v>18612</v>
       </c>
       <c r="M7" t="n">
-        <v>16508.91</v>
+        <v>5702.44</v>
       </c>
       <c r="N7" t="n">
-        <v>9905.35</v>
+        <v>3421.47</v>
       </c>
       <c r="O7" t="n">
-        <v>6603.56</v>
+        <v>2280.98</v>
       </c>
       <c r="P7" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="R7" t="n">
-        <v>107.05</v>
+        <v>104.96</v>
       </c>
       <c r="S7" t="n">
-        <v>154.21</v>
+        <v>54.33</v>
       </c>
       <c r="T7" t="n">
-        <v>36.47</v>
+        <v>36.75</v>
       </c>
       <c r="U7" t="n">
-        <v>92.53</v>
+        <v>32.6</v>
       </c>
       <c r="V7" t="n">
-        <v>61.68</v>
+        <v>21.73</v>
       </c>
       <c r="W7" t="n">
-        <v>5.38</v>
+        <v>8.15</v>
       </c>
       <c r="X7" t="n">
-        <v>17.31</v>
+        <v>23.91</v>
       </c>
       <c r="Y7" t="n">
-        <v>107.05</v>
+        <v>104.96</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-03 13:26:22</t>
+          <t>2026-02-03 17:17:35</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3527,7 +3077,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.914</t>
+          <t>Mouse session - Score: 0.585</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3542,11 +3092,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3555,7 +3105,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13:26:22</t>
+          <t>17:17:35</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3564,58 +3114,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>24204</v>
+        <v>21533</v>
       </c>
       <c r="L8" t="n">
-        <v>24204</v>
+        <v>21533</v>
       </c>
       <c r="M8" t="n">
-        <v>35632.41</v>
+        <v>25014.04</v>
       </c>
       <c r="N8" t="n">
-        <v>21379.45</v>
+        <v>15008.42</v>
       </c>
       <c r="O8" t="n">
-        <v>14252.97</v>
+        <v>10005.62</v>
       </c>
       <c r="P8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="R8" t="n">
-        <v>164.24</v>
+        <v>45.8</v>
       </c>
       <c r="S8" t="n">
-        <v>216.96</v>
+        <v>546.15</v>
       </c>
       <c r="T8" t="n">
-        <v>18.78</v>
+        <v>12.14</v>
       </c>
       <c r="U8" t="n">
-        <v>130.17</v>
+        <v>327.69</v>
       </c>
       <c r="V8" t="n">
-        <v>86.78</v>
+        <v>218.46</v>
       </c>
       <c r="W8" t="n">
-        <v>21.59</v>
+        <v>6.23</v>
       </c>
       <c r="X8" t="n">
-        <v>22.32</v>
+        <v>13.89</v>
       </c>
       <c r="Y8" t="n">
-        <v>164.24</v>
+        <v>45.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.914</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-03 11:30:40</t>
+          <t>2026-02-03 10:29:13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3625,7 +3175,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.627</t>
+          <t>Mouse session - Score: 0.626</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3653,7 +3203,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11:30:40</t>
+          <t>10:29:13</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3662,58 +3212,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>6550</v>
+        <v>15813</v>
       </c>
       <c r="L9" t="n">
-        <v>6550</v>
+        <v>15813</v>
       </c>
       <c r="M9" t="n">
-        <v>7744.35</v>
+        <v>32019.01</v>
       </c>
       <c r="N9" t="n">
-        <v>4646.61</v>
+        <v>19211.41</v>
       </c>
       <c r="O9" t="n">
-        <v>3097.74</v>
+        <v>12807.6</v>
       </c>
       <c r="P9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R9" t="n">
-        <v>101.98</v>
+        <v>116.13</v>
       </c>
       <c r="S9" t="n">
-        <v>75.94</v>
+        <v>275.72</v>
       </c>
       <c r="T9" t="n">
-        <v>9.98</v>
+        <v>7.77</v>
       </c>
       <c r="U9" t="n">
-        <v>45.56</v>
+        <v>165.43</v>
       </c>
       <c r="V9" t="n">
-        <v>30.38</v>
+        <v>110.29</v>
       </c>
       <c r="W9" t="n">
-        <v>18.24</v>
+        <v>11.65</v>
       </c>
       <c r="X9" t="n">
-        <v>13.74</v>
+        <v>25.81</v>
       </c>
       <c r="Y9" t="n">
-        <v>101.98</v>
+        <v>116.13</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.627</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-03 12:20:35</t>
+          <t>2026-02-03 12:59:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3723,7 +3273,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.475</t>
+          <t>Mouse session - Score: 0.816</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3738,11 +3288,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3751,7 +3301,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12:20:35</t>
+          <t>12:59:36</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3760,58 +3310,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>21835</v>
+        <v>16827</v>
       </c>
       <c r="L10" t="n">
-        <v>21835</v>
+        <v>16827</v>
       </c>
       <c r="M10" t="n">
-        <v>27027.88</v>
+        <v>8615.73</v>
       </c>
       <c r="N10" t="n">
-        <v>16216.73</v>
+        <v>5169.44</v>
       </c>
       <c r="O10" t="n">
-        <v>10811.15</v>
+        <v>3446.29</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R10" t="n">
-        <v>85.28</v>
+        <v>171.39</v>
       </c>
       <c r="S10" t="n">
-        <v>316.93</v>
+        <v>50.27</v>
       </c>
       <c r="T10" t="n">
-        <v>28.71</v>
+        <v>43.92</v>
       </c>
       <c r="U10" t="n">
-        <v>190.16</v>
+        <v>30.16</v>
       </c>
       <c r="V10" t="n">
-        <v>126.77</v>
+        <v>20.11</v>
       </c>
       <c r="W10" t="n">
-        <v>27.38</v>
+        <v>25.76</v>
       </c>
       <c r="X10" t="n">
-        <v>23.75</v>
+        <v>20.95</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.28</v>
+        <v>171.39</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.475</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-04 11:14:10</t>
+          <t>2026-02-04 13:53:12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3821,7 +3371,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.608</t>
+          <t>Mouse session - Score: 0.602</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3849,7 +3399,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11:14:10</t>
+          <t>13:53:12</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3858,58 +3408,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>28782</v>
+        <v>21177</v>
       </c>
       <c r="L11" t="n">
-        <v>28782</v>
+        <v>21177</v>
       </c>
       <c r="M11" t="n">
-        <v>6646.6</v>
+        <v>39406.67</v>
       </c>
       <c r="N11" t="n">
-        <v>3987.96</v>
+        <v>23644</v>
       </c>
       <c r="O11" t="n">
-        <v>2658.64</v>
+        <v>15762.67</v>
       </c>
       <c r="P11" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R11" t="n">
-        <v>158.29</v>
+        <v>115.74</v>
       </c>
       <c r="S11" t="n">
-        <v>41.99</v>
+        <v>340.48</v>
       </c>
       <c r="T11" t="n">
-        <v>21.84</v>
+        <v>45.87</v>
       </c>
       <c r="U11" t="n">
-        <v>25.19</v>
+        <v>204.29</v>
       </c>
       <c r="V11" t="n">
-        <v>16.8</v>
+        <v>136.19</v>
       </c>
       <c r="W11" t="n">
-        <v>13.7</v>
+        <v>9.23</v>
       </c>
       <c r="X11" t="n">
-        <v>15.89</v>
+        <v>26.38</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.29</v>
+        <v>115.74</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.608</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-04 11:45:13</t>
+          <t>2026-02-04 16:29:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3919,7 +3469,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.881</t>
+          <t>Mouse session - Score: 0.539</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3934,11 +3484,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3947,7 +3497,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11:45:13</t>
+          <t>16:29:34</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3956,58 +3506,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>7273</v>
+        <v>13455</v>
       </c>
       <c r="L12" t="n">
-        <v>7273</v>
+        <v>13455</v>
       </c>
       <c r="M12" t="n">
-        <v>30253.81</v>
+        <v>8217.75</v>
       </c>
       <c r="N12" t="n">
-        <v>18152.29</v>
+        <v>4930.65</v>
       </c>
       <c r="O12" t="n">
-        <v>12101.52</v>
+        <v>3287.1</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="Q12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R12" t="n">
-        <v>135.99</v>
+        <v>177.16</v>
       </c>
       <c r="S12" t="n">
-        <v>222.47</v>
+        <v>46.39</v>
       </c>
       <c r="T12" t="n">
-        <v>11.69</v>
+        <v>49.91</v>
       </c>
       <c r="U12" t="n">
-        <v>133.48</v>
+        <v>27.83</v>
       </c>
       <c r="V12" t="n">
-        <v>88.98999999999999</v>
+        <v>18.55</v>
       </c>
       <c r="W12" t="n">
-        <v>21.37</v>
+        <v>19.75</v>
       </c>
       <c r="X12" t="n">
-        <v>13.78</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>135.99</v>
+        <v>177.16</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.881</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-04 17:56:46</t>
+          <t>2026-02-04 09:27:43</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4017,7 +3567,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.495</t>
+          <t>Mouse session - Score: 0.529</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4045,7 +3595,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17:56:46</t>
+          <t>09:27:43</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -4054,58 +3604,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>12099</v>
+        <v>13645</v>
       </c>
       <c r="L13" t="n">
-        <v>12099</v>
+        <v>13645</v>
       </c>
       <c r="M13" t="n">
-        <v>8533.870000000001</v>
+        <v>12031.43</v>
       </c>
       <c r="N13" t="n">
-        <v>5120.32</v>
+        <v>7218.86</v>
       </c>
       <c r="O13" t="n">
-        <v>3413.55</v>
+        <v>4812.57</v>
       </c>
       <c r="P13" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q13" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="R13" t="n">
-        <v>146.34</v>
+        <v>71.28</v>
       </c>
       <c r="S13" t="n">
-        <v>58.31</v>
+        <v>168.8</v>
       </c>
       <c r="T13" t="n">
-        <v>22.4</v>
+        <v>10.99</v>
       </c>
       <c r="U13" t="n">
-        <v>34.99</v>
+        <v>101.28</v>
       </c>
       <c r="V13" t="n">
-        <v>23.33</v>
+        <v>67.52</v>
       </c>
       <c r="W13" t="n">
-        <v>9.34</v>
+        <v>27.86</v>
       </c>
       <c r="X13" t="n">
-        <v>27.72</v>
+        <v>21.83</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.34</v>
+        <v>71.28</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.495</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-05 13:01:38</t>
+          <t>2026-02-05 11:24:08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4115,7 +3665,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.627</t>
+          <t>Mouse session - Score: 0.487</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4143,7 +3693,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13:01:38</t>
+          <t>11:24:08</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -4152,58 +3702,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>15946</v>
+        <v>14543</v>
       </c>
       <c r="L14" t="n">
-        <v>15946</v>
+        <v>14543</v>
       </c>
       <c r="M14" t="n">
-        <v>12068.51</v>
+        <v>20825.37</v>
       </c>
       <c r="N14" t="n">
-        <v>7241.11</v>
+        <v>12495.22</v>
       </c>
       <c r="O14" t="n">
-        <v>4827.41</v>
+        <v>8330.15</v>
       </c>
       <c r="P14" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R14" t="n">
-        <v>145.78</v>
+        <v>93.22</v>
       </c>
       <c r="S14" t="n">
-        <v>82.78</v>
+        <v>223.4</v>
       </c>
       <c r="T14" t="n">
-        <v>26.48</v>
+        <v>20.54</v>
       </c>
       <c r="U14" t="n">
-        <v>49.67</v>
+        <v>134.04</v>
       </c>
       <c r="V14" t="n">
-        <v>33.11</v>
+        <v>89.36</v>
       </c>
       <c r="W14" t="n">
-        <v>27.72</v>
+        <v>21.8</v>
       </c>
       <c r="X14" t="n">
-        <v>15.58</v>
+        <v>17.12</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.78</v>
+        <v>93.22</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.627</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-05 14:55:38</t>
+          <t>2026-02-05 14:40:04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4213,7 +3763,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.608</t>
+          <t>Mouse session - Score: 0.496</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4241,7 +3791,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14:55:38</t>
+          <t>14:40:04</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -4250,58 +3800,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>13180</v>
+        <v>18708</v>
       </c>
       <c r="L15" t="n">
-        <v>13180</v>
+        <v>18708</v>
       </c>
       <c r="M15" t="n">
-        <v>30781.85</v>
+        <v>20707.99</v>
       </c>
       <c r="N15" t="n">
-        <v>18469.11</v>
+        <v>12424.8</v>
       </c>
       <c r="O15" t="n">
-        <v>12312.74</v>
+        <v>8283.200000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="R15" t="n">
-        <v>81.3</v>
+        <v>97.92</v>
       </c>
       <c r="S15" t="n">
-        <v>378.63</v>
+        <v>211.48</v>
       </c>
       <c r="T15" t="n">
-        <v>20.97</v>
+        <v>38.97</v>
       </c>
       <c r="U15" t="n">
-        <v>227.18</v>
+        <v>126.89</v>
       </c>
       <c r="V15" t="n">
-        <v>151.45</v>
+        <v>84.59</v>
       </c>
       <c r="W15" t="n">
-        <v>7.95</v>
+        <v>15.85</v>
       </c>
       <c r="X15" t="n">
-        <v>29.11</v>
+        <v>6.15</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.3</v>
+        <v>97.92</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.608</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-02-05 11:47:41</t>
+          <t>2026-02-05 16:25:50</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4311,7 +3861,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.507</t>
+          <t>Mouse session - Score: 0.555</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4339,7 +3889,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11:47:41</t>
+          <t>16:25:50</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -4348,58 +3898,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6540</v>
+        <v>5756</v>
       </c>
       <c r="L16" t="n">
-        <v>6540</v>
+        <v>5756</v>
       </c>
       <c r="M16" t="n">
-        <v>24897.23</v>
+        <v>28288.02</v>
       </c>
       <c r="N16" t="n">
-        <v>14938.34</v>
+        <v>16972.81</v>
       </c>
       <c r="O16" t="n">
-        <v>9958.889999999999</v>
+        <v>11315.21</v>
       </c>
       <c r="P16" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R16" t="n">
-        <v>34.86</v>
+        <v>63.53</v>
       </c>
       <c r="S16" t="n">
-        <v>714.1799999999999</v>
+        <v>445.27</v>
       </c>
       <c r="T16" t="n">
-        <v>25.95</v>
+        <v>38.49</v>
       </c>
       <c r="U16" t="n">
-        <v>428.51</v>
+        <v>267.16</v>
       </c>
       <c r="V16" t="n">
-        <v>285.67</v>
+        <v>178.11</v>
       </c>
       <c r="W16" t="n">
-        <v>22.98</v>
+        <v>22.94</v>
       </c>
       <c r="X16" t="n">
-        <v>9.81</v>
+        <v>6.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.86</v>
+        <v>63.53</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.507</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-02-06 12:42:35</t>
+          <t>2026-02-06 15:10:39</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4409,7 +3959,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.575</t>
+          <t>Mouse session - Score: 0.645</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4437,7 +3987,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12:42:35</t>
+          <t>15:10:39</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -4446,58 +3996,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>9007</v>
+        <v>16228</v>
       </c>
       <c r="L17" t="n">
-        <v>9007</v>
+        <v>16228</v>
       </c>
       <c r="M17" t="n">
-        <v>16678.29</v>
+        <v>15178.92</v>
       </c>
       <c r="N17" t="n">
-        <v>10006.97</v>
+        <v>9107.35</v>
       </c>
       <c r="O17" t="n">
-        <v>6671.32</v>
+        <v>6071.57</v>
       </c>
       <c r="P17" t="n">
         <v>16</v>
       </c>
       <c r="Q17" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R17" t="n">
-        <v>161.59</v>
+        <v>34.06</v>
       </c>
       <c r="S17" t="n">
-        <v>103.22</v>
+        <v>445.64</v>
       </c>
       <c r="T17" t="n">
-        <v>48.97</v>
+        <v>39.14</v>
       </c>
       <c r="U17" t="n">
-        <v>61.93</v>
+        <v>267.38</v>
       </c>
       <c r="V17" t="n">
-        <v>41.29</v>
+        <v>178.26</v>
       </c>
       <c r="W17" t="n">
-        <v>26.93</v>
+        <v>26.66</v>
       </c>
       <c r="X17" t="n">
-        <v>23.29</v>
+        <v>15.32</v>
       </c>
       <c r="Y17" t="n">
-        <v>161.59</v>
+        <v>34.06</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.575</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-06 12:59:24</t>
+          <t>2026-02-06 16:41:04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4507,7 +4057,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.539</t>
+          <t>Mouse session - Score: 0.453</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4535,7 +4085,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12:59:24</t>
+          <t>16:41:04</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4544,58 +4094,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>13693</v>
+        <v>18430</v>
       </c>
       <c r="L18" t="n">
-        <v>13693</v>
+        <v>18430</v>
       </c>
       <c r="M18" t="n">
-        <v>28240.28</v>
+        <v>17633.25</v>
       </c>
       <c r="N18" t="n">
-        <v>16944.17</v>
+        <v>10579.95</v>
       </c>
       <c r="O18" t="n">
-        <v>11296.11</v>
+        <v>7053.3</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="Q18" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>111.04</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>254.33</v>
+        <v>274.28</v>
       </c>
       <c r="T18" t="n">
-        <v>24.72</v>
+        <v>40</v>
       </c>
       <c r="U18" t="n">
-        <v>152.6</v>
+        <v>164.57</v>
       </c>
       <c r="V18" t="n">
-        <v>101.73</v>
+        <v>109.71</v>
       </c>
       <c r="W18" t="n">
-        <v>8.08</v>
+        <v>28.35</v>
       </c>
       <c r="X18" t="n">
-        <v>14.92</v>
+        <v>20.92</v>
       </c>
       <c r="Y18" t="n">
-        <v>111.04</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.539</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-02-06 10:26:30</t>
+          <t>2026-02-06 13:06:28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4605,7 +4155,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.491</t>
+          <t>Mouse session - Score: 0.558</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4633,7 +4183,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>10:26:30</t>
+          <t>13:06:28</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -4642,58 +4192,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>24915</v>
+        <v>12120</v>
       </c>
       <c r="L19" t="n">
-        <v>24915</v>
+        <v>12120</v>
       </c>
       <c r="M19" t="n">
-        <v>14912.86</v>
+        <v>28961.33</v>
       </c>
       <c r="N19" t="n">
-        <v>8947.709999999999</v>
+        <v>17376.8</v>
       </c>
       <c r="O19" t="n">
-        <v>5965.14</v>
+        <v>11584.53</v>
       </c>
       <c r="P19" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>71.66</v>
+        <v>62.41</v>
       </c>
       <c r="S19" t="n">
-        <v>208.11</v>
+        <v>464.06</v>
       </c>
       <c r="T19" t="n">
-        <v>43.6</v>
+        <v>36.08</v>
       </c>
       <c r="U19" t="n">
-        <v>124.86</v>
+        <v>278.44</v>
       </c>
       <c r="V19" t="n">
-        <v>83.23999999999999</v>
+        <v>185.62</v>
       </c>
       <c r="W19" t="n">
-        <v>5.53</v>
+        <v>12.5</v>
       </c>
       <c r="X19" t="n">
-        <v>17.52</v>
+        <v>14.14</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.66</v>
+        <v>62.41</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.491</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-02-08 09:32:53</t>
+          <t>2026-02-07 15:56:47</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4703,7 +4253,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.458</t>
+          <t>Mouse session - Score: 0.633</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4713,7 +4263,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20260208_000</t>
+          <t>MOUSE_20260207_000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4726,12 +4276,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>09:32:53</t>
+          <t>15:56:47</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4740,58 +4290,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>28047</v>
+        <v>15026</v>
       </c>
       <c r="L20" t="n">
-        <v>28047</v>
+        <v>15026</v>
       </c>
       <c r="M20" t="n">
-        <v>30883.13</v>
+        <v>5948.17</v>
       </c>
       <c r="N20" t="n">
-        <v>18529.88</v>
+        <v>3568.9</v>
       </c>
       <c r="O20" t="n">
-        <v>12353.25</v>
+        <v>2379.27</v>
       </c>
       <c r="P20" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="Q20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R20" t="n">
-        <v>90.93000000000001</v>
+        <v>115.92</v>
       </c>
       <c r="S20" t="n">
-        <v>339.65</v>
+        <v>51.31</v>
       </c>
       <c r="T20" t="n">
-        <v>43.76</v>
+        <v>41.18</v>
       </c>
       <c r="U20" t="n">
-        <v>203.79</v>
+        <v>30.79</v>
       </c>
       <c r="V20" t="n">
-        <v>135.86</v>
+        <v>20.53</v>
       </c>
       <c r="W20" t="n">
-        <v>3.83</v>
+        <v>18.7</v>
       </c>
       <c r="X20" t="n">
-        <v>22.03</v>
+        <v>4.28</v>
       </c>
       <c r="Y20" t="n">
-        <v>90.93000000000001</v>
+        <v>115.92</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.458</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-02-08 11:00:15</t>
+          <t>2026-02-07 13:08:31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4801,7 +4351,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.604</t>
+          <t>Mouse session - Score: 0.461</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4811,7 +4361,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20260208_001</t>
+          <t>MOUSE_20260207_001</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4824,12 +4374,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11:00:15</t>
+          <t>13:08:31</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4838,58 +4388,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>24783</v>
+        <v>16900</v>
       </c>
       <c r="L21" t="n">
-        <v>24783</v>
+        <v>16900</v>
       </c>
       <c r="M21" t="n">
-        <v>26466.92</v>
+        <v>35059.95</v>
       </c>
       <c r="N21" t="n">
-        <v>15880.15</v>
+        <v>21035.97</v>
       </c>
       <c r="O21" t="n">
-        <v>10586.77</v>
+        <v>14023.98</v>
       </c>
       <c r="P21" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R21" t="n">
-        <v>40.78</v>
+        <v>131.08</v>
       </c>
       <c r="S21" t="n">
-        <v>648.97</v>
+        <v>267.46</v>
       </c>
       <c r="T21" t="n">
-        <v>10.09</v>
+        <v>14.59</v>
       </c>
       <c r="U21" t="n">
-        <v>389.38</v>
+        <v>160.48</v>
       </c>
       <c r="V21" t="n">
-        <v>259.59</v>
+        <v>106.99</v>
       </c>
       <c r="W21" t="n">
-        <v>8.42</v>
+        <v>26.24</v>
       </c>
       <c r="X21" t="n">
-        <v>25.57</v>
+        <v>29.48</v>
       </c>
       <c r="Y21" t="n">
-        <v>40.78</v>
+        <v>131.08</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.604</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-02-08 12:14:11</t>
+          <t>2026-02-07 11:10:42</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4899,7 +4449,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.623</t>
+          <t>Mouse session - Score: 0.542</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4909,7 +4459,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20260208_002</t>
+          <t>MOUSE_20260207_002</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4922,12 +4472,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>12:14:11</t>
+          <t>11:10:42</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4936,58 +4486,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>19396</v>
+        <v>20565</v>
       </c>
       <c r="L22" t="n">
-        <v>19396</v>
+        <v>20565</v>
       </c>
       <c r="M22" t="n">
-        <v>20767.25</v>
+        <v>6755.6</v>
       </c>
       <c r="N22" t="n">
-        <v>12460.35</v>
+        <v>4053.36</v>
       </c>
       <c r="O22" t="n">
-        <v>8306.9</v>
+        <v>2702.24</v>
       </c>
       <c r="P22" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q22" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="R22" t="n">
-        <v>104.74</v>
+        <v>86.97</v>
       </c>
       <c r="S22" t="n">
-        <v>198.27</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="T22" t="n">
-        <v>8.02</v>
+        <v>20.95</v>
       </c>
       <c r="U22" t="n">
-        <v>118.96</v>
+        <v>46.61</v>
       </c>
       <c r="V22" t="n">
-        <v>79.31</v>
+        <v>31.07</v>
       </c>
       <c r="W22" t="n">
-        <v>17.88</v>
+        <v>11.99</v>
       </c>
       <c r="X22" t="n">
-        <v>11.53</v>
+        <v>9.66</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.74</v>
+        <v>86.97</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.623</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-02-09 13:21:10</t>
+          <t>2026-02-09 16:19:56</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4997,7 +4547,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.474</t>
+          <t>Mouse session - Score: 0.488</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5025,7 +4575,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13:21:10</t>
+          <t>16:19:56</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -5034,58 +4584,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>7254</v>
+        <v>19930</v>
       </c>
       <c r="L23" t="n">
-        <v>7254</v>
+        <v>19930</v>
       </c>
       <c r="M23" t="n">
-        <v>18280.29</v>
+        <v>8976.73</v>
       </c>
       <c r="N23" t="n">
-        <v>10968.18</v>
+        <v>5386.04</v>
       </c>
       <c r="O23" t="n">
-        <v>7312.12</v>
+        <v>3590.69</v>
       </c>
       <c r="P23" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="R23" t="n">
-        <v>147.47</v>
+        <v>41.28</v>
       </c>
       <c r="S23" t="n">
-        <v>123.96</v>
+        <v>217.47</v>
       </c>
       <c r="T23" t="n">
-        <v>7.42</v>
+        <v>49.05</v>
       </c>
       <c r="U23" t="n">
-        <v>74.38</v>
+        <v>130.48</v>
       </c>
       <c r="V23" t="n">
-        <v>49.59</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="W23" t="n">
-        <v>28.51</v>
+        <v>27.92</v>
       </c>
       <c r="X23" t="n">
-        <v>16.03</v>
+        <v>21.32</v>
       </c>
       <c r="Y23" t="n">
-        <v>147.47</v>
+        <v>41.28</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.474</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-02-09 13:36:55</t>
+          <t>2026-02-09 17:03:29</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5095,7 +4645,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.534</t>
+          <t>Mouse session - Score: 0.467</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5123,7 +4673,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>13:36:55</t>
+          <t>17:03:29</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -5132,58 +4682,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>13102</v>
+        <v>12875</v>
       </c>
       <c r="L24" t="n">
-        <v>13102</v>
+        <v>12875</v>
       </c>
       <c r="M24" t="n">
-        <v>27285.33</v>
+        <v>32025.35</v>
       </c>
       <c r="N24" t="n">
-        <v>16371.2</v>
+        <v>19215.21</v>
       </c>
       <c r="O24" t="n">
-        <v>10914.13</v>
+        <v>12810.14</v>
       </c>
       <c r="P24" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="R24" t="n">
-        <v>167.91</v>
+        <v>67.59</v>
       </c>
       <c r="S24" t="n">
-        <v>162.5</v>
+        <v>473.82</v>
       </c>
       <c r="T24" t="n">
-        <v>14.01</v>
+        <v>40.17</v>
       </c>
       <c r="U24" t="n">
-        <v>97.5</v>
+        <v>284.29</v>
       </c>
       <c r="V24" t="n">
-        <v>65</v>
+        <v>189.53</v>
       </c>
       <c r="W24" t="n">
-        <v>18.25</v>
+        <v>22.84</v>
       </c>
       <c r="X24" t="n">
-        <v>16.56</v>
+        <v>22.54</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.91</v>
+        <v>67.59</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.534</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-02-09 17:41:01</t>
+          <t>2026-02-09 09:10:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5193,7 +4743,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.577</t>
+          <t>Mouse session - Score: 0.604</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5221,7 +4771,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>17:41:01</t>
+          <t>09:10:30</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5230,58 +4780,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>15091</v>
+        <v>14983</v>
       </c>
       <c r="L25" t="n">
-        <v>15091</v>
+        <v>14983</v>
       </c>
       <c r="M25" t="n">
-        <v>14778.29</v>
+        <v>34239.37</v>
       </c>
       <c r="N25" t="n">
-        <v>8866.969999999999</v>
+        <v>20543.62</v>
       </c>
       <c r="O25" t="n">
-        <v>5911.32</v>
+        <v>13695.75</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q25" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R25" t="n">
-        <v>55.18</v>
+        <v>31.74</v>
       </c>
       <c r="S25" t="n">
-        <v>267.82</v>
+        <v>1078.85</v>
       </c>
       <c r="T25" t="n">
-        <v>11.86</v>
+        <v>20.96</v>
       </c>
       <c r="U25" t="n">
-        <v>160.69</v>
+        <v>647.3099999999999</v>
       </c>
       <c r="V25" t="n">
-        <v>107.13</v>
+        <v>431.54</v>
       </c>
       <c r="W25" t="n">
-        <v>9.970000000000001</v>
+        <v>14.67</v>
       </c>
       <c r="X25" t="n">
-        <v>29.6</v>
+        <v>20.73</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.18</v>
+        <v>31.74</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.577</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-02-10 09:11:30</t>
+          <t>2026-02-10 11:10:37</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5291,7 +4841,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.459</t>
+          <t>Mouse session - Score: 0.594</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5319,7 +4869,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>09:11:30</t>
+          <t>11:10:37</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -5328,58 +4878,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>6884</v>
+        <v>25679</v>
       </c>
       <c r="L26" t="n">
-        <v>6884</v>
+        <v>25679</v>
       </c>
       <c r="M26" t="n">
-        <v>33980.67</v>
+        <v>36469.99</v>
       </c>
       <c r="N26" t="n">
-        <v>20388.4</v>
+        <v>21882</v>
       </c>
       <c r="O26" t="n">
-        <v>13592.27</v>
+        <v>14588</v>
       </c>
       <c r="P26" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="R26" t="n">
-        <v>109.51</v>
+        <v>109.49</v>
       </c>
       <c r="S26" t="n">
-        <v>310.3</v>
+        <v>333.1</v>
       </c>
       <c r="T26" t="n">
-        <v>19.09</v>
+        <v>34.79</v>
       </c>
       <c r="U26" t="n">
-        <v>186.18</v>
+        <v>199.86</v>
       </c>
       <c r="V26" t="n">
-        <v>124.12</v>
+        <v>133.24</v>
       </c>
       <c r="W26" t="n">
-        <v>9.539999999999999</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>12.48</v>
+        <v>23.24</v>
       </c>
       <c r="Y26" t="n">
-        <v>109.51</v>
+        <v>109.49</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.459</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-02-10 16:05:41</t>
+          <t>2026-02-10 16:02:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5389,7 +4939,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.523</t>
+          <t>Mouse session - Score: 0.630</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5417,7 +4967,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>16:05:41</t>
+          <t>16:02:13</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5426,58 +4976,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>7405</v>
+        <v>18032</v>
       </c>
       <c r="L27" t="n">
-        <v>7405</v>
+        <v>18032</v>
       </c>
       <c r="M27" t="n">
-        <v>31629.44</v>
+        <v>36044.05</v>
       </c>
       <c r="N27" t="n">
-        <v>18977.67</v>
+        <v>21626.43</v>
       </c>
       <c r="O27" t="n">
-        <v>12651.78</v>
+        <v>14417.62</v>
       </c>
       <c r="P27" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R27" t="n">
-        <v>141.76</v>
+        <v>70.33</v>
       </c>
       <c r="S27" t="n">
-        <v>223.11</v>
+        <v>512.52</v>
       </c>
       <c r="T27" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="U27" t="n">
-        <v>133.87</v>
+        <v>307.51</v>
       </c>
       <c r="V27" t="n">
-        <v>89.25</v>
+        <v>205.01</v>
       </c>
       <c r="W27" t="n">
-        <v>7.9</v>
+        <v>7.39</v>
       </c>
       <c r="X27" t="n">
-        <v>13.39</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>141.76</v>
+        <v>70.33</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.523</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-02-10 11:01:24</t>
+          <t>2026-02-10 17:30:48</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5487,7 +5037,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.583</t>
+          <t>Mouse session - Score: 0.485</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5515,7 +5065,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11:01:24</t>
+          <t>17:30:48</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5524,58 +5074,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>18302</v>
+        <v>7140</v>
       </c>
       <c r="L28" t="n">
-        <v>18302</v>
+        <v>7140</v>
       </c>
       <c r="M28" t="n">
-        <v>29625.96</v>
+        <v>20917.81</v>
       </c>
       <c r="N28" t="n">
-        <v>17775.57</v>
+        <v>12550.69</v>
       </c>
       <c r="O28" t="n">
-        <v>11850.38</v>
+        <v>8367.120000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q28" t="n">
         <v>29</v>
       </c>
       <c r="R28" t="n">
-        <v>119.71</v>
+        <v>124.84</v>
       </c>
       <c r="S28" t="n">
-        <v>247.48</v>
+        <v>167.56</v>
       </c>
       <c r="T28" t="n">
-        <v>16.27</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U28" t="n">
-        <v>148.49</v>
+        <v>100.54</v>
       </c>
       <c r="V28" t="n">
-        <v>98.98999999999999</v>
+        <v>67.02</v>
       </c>
       <c r="W28" t="n">
-        <v>22.05</v>
+        <v>24.27</v>
       </c>
       <c r="X28" t="n">
-        <v>9.1</v>
+        <v>13.71</v>
       </c>
       <c r="Y28" t="n">
-        <v>119.71</v>
+        <v>124.84</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.583</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-02-11 11:56:12</t>
+          <t>2026-02-11 14:29:51</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5585,7 +5135,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.815</t>
+          <t>Mouse session - Score: 0.548</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5600,11 +5150,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -5613,7 +5163,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11:56:12</t>
+          <t>14:29:51</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5622,58 +5172,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>8279</v>
+        <v>20895</v>
       </c>
       <c r="L29" t="n">
-        <v>8279</v>
+        <v>20895</v>
       </c>
       <c r="M29" t="n">
-        <v>18097.55</v>
+        <v>28014.61</v>
       </c>
       <c r="N29" t="n">
-        <v>10858.53</v>
+        <v>16808.76</v>
       </c>
       <c r="O29" t="n">
-        <v>7239.02</v>
+        <v>11205.84</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="R29" t="n">
-        <v>176.37</v>
+        <v>30.19</v>
       </c>
       <c r="S29" t="n">
-        <v>102.61</v>
+        <v>927.83</v>
       </c>
       <c r="T29" t="n">
-        <v>18.43</v>
+        <v>23.38</v>
       </c>
       <c r="U29" t="n">
-        <v>61.57</v>
+        <v>556.7</v>
       </c>
       <c r="V29" t="n">
-        <v>41.05</v>
+        <v>371.13</v>
       </c>
       <c r="W29" t="n">
-        <v>3.03</v>
+        <v>14.41</v>
       </c>
       <c r="X29" t="n">
-        <v>4.15</v>
+        <v>24.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>176.37</v>
+        <v>30.19</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-02-11 13:24:34</t>
+          <t>2026-02-11 10:49:10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5683,7 +5233,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.465</t>
+          <t>Mouse session - Score: 0.529</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5711,7 +5261,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>13:24:34</t>
+          <t>10:49:10</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5720,58 +5270,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>23577</v>
+        <v>27412</v>
       </c>
       <c r="L30" t="n">
-        <v>23577</v>
+        <v>27412</v>
       </c>
       <c r="M30" t="n">
-        <v>16639.09</v>
+        <v>24566.48</v>
       </c>
       <c r="N30" t="n">
-        <v>9983.459999999999</v>
+        <v>14739.89</v>
       </c>
       <c r="O30" t="n">
-        <v>6655.64</v>
+        <v>9826.59</v>
       </c>
       <c r="P30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R30" t="n">
-        <v>56.07</v>
+        <v>154.71</v>
       </c>
       <c r="S30" t="n">
-        <v>296.76</v>
+        <v>158.79</v>
       </c>
       <c r="T30" t="n">
-        <v>21.97</v>
+        <v>19.98</v>
       </c>
       <c r="U30" t="n">
-        <v>178.05</v>
+        <v>95.27</v>
       </c>
       <c r="V30" t="n">
-        <v>118.7</v>
+        <v>63.52</v>
       </c>
       <c r="W30" t="n">
-        <v>3.04</v>
+        <v>15.82</v>
       </c>
       <c r="X30" t="n">
-        <v>16.14</v>
+        <v>10.87</v>
       </c>
       <c r="Y30" t="n">
-        <v>56.07</v>
+        <v>154.71</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.465</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-02-11 14:07:47</t>
+          <t>2026-02-11 10:11:56</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5781,7 +5331,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.619</t>
+          <t>Mouse session - Score: 0.506</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5809,7 +5359,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>14:07:47</t>
+          <t>10:11:56</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5818,58 +5368,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>8074</v>
+        <v>26958</v>
       </c>
       <c r="L31" t="n">
-        <v>8074</v>
+        <v>26958</v>
       </c>
       <c r="M31" t="n">
-        <v>17271.93</v>
+        <v>11870.87</v>
       </c>
       <c r="N31" t="n">
-        <v>10363.16</v>
+        <v>7122.52</v>
       </c>
       <c r="O31" t="n">
-        <v>6908.77</v>
+        <v>4748.35</v>
       </c>
       <c r="P31" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Q31" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R31" t="n">
-        <v>143.68</v>
+        <v>70.78</v>
       </c>
       <c r="S31" t="n">
-        <v>120.21</v>
+        <v>167.7</v>
       </c>
       <c r="T31" t="n">
-        <v>49.05</v>
+        <v>30</v>
       </c>
       <c r="U31" t="n">
-        <v>72.13</v>
+        <v>100.62</v>
       </c>
       <c r="V31" t="n">
-        <v>48.08</v>
+        <v>67.08</v>
       </c>
       <c r="W31" t="n">
-        <v>23.45</v>
+        <v>4.56</v>
       </c>
       <c r="X31" t="n">
-        <v>19.4</v>
+        <v>6.62</v>
       </c>
       <c r="Y31" t="n">
-        <v>143.68</v>
+        <v>70.78</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.619</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-02-12 14:37:09</t>
+          <t>2026-02-12 11:05:24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5879,7 +5429,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.493</t>
+          <t>Mouse session - Score: 0.564</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5907,7 +5457,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>14:37:09</t>
+          <t>11:05:24</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5916,58 +5466,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>11070</v>
+        <v>21117</v>
       </c>
       <c r="L32" t="n">
-        <v>11070</v>
+        <v>21117</v>
       </c>
       <c r="M32" t="n">
-        <v>33313.55</v>
+        <v>13916.02</v>
       </c>
       <c r="N32" t="n">
-        <v>19988.13</v>
+        <v>8349.610000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>13325.42</v>
+        <v>5566.41</v>
       </c>
       <c r="P32" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="R32" t="n">
-        <v>130.75</v>
+        <v>97.09</v>
       </c>
       <c r="S32" t="n">
-        <v>254.79</v>
+        <v>143.33</v>
       </c>
       <c r="T32" t="n">
-        <v>15.75</v>
+        <v>27.89</v>
       </c>
       <c r="U32" t="n">
-        <v>152.88</v>
+        <v>86</v>
       </c>
       <c r="V32" t="n">
-        <v>101.92</v>
+        <v>57.33</v>
       </c>
       <c r="W32" t="n">
-        <v>12.93</v>
+        <v>22.2</v>
       </c>
       <c r="X32" t="n">
-        <v>8.869999999999999</v>
+        <v>18.31</v>
       </c>
       <c r="Y32" t="n">
-        <v>130.75</v>
+        <v>97.09</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.493</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-02-12 14:04:08</t>
+          <t>2026-02-12 12:16:33</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5977,7 +5527,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.558</t>
+          <t>Mouse session - Score: 0.638</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6005,7 +5555,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>14:04:08</t>
+          <t>12:16:33</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -6014,58 +5564,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>27804</v>
+        <v>27456</v>
       </c>
       <c r="L33" t="n">
-        <v>27804</v>
+        <v>27456</v>
       </c>
       <c r="M33" t="n">
-        <v>38970.95</v>
+        <v>21234.75</v>
       </c>
       <c r="N33" t="n">
-        <v>23382.57</v>
+        <v>12740.85</v>
       </c>
       <c r="O33" t="n">
-        <v>15588.38</v>
+        <v>8493.9</v>
       </c>
       <c r="P33" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="R33" t="n">
-        <v>167.22</v>
+        <v>37.58</v>
       </c>
       <c r="S33" t="n">
-        <v>233.05</v>
+        <v>565.0599999999999</v>
       </c>
       <c r="T33" t="n">
-        <v>42.81</v>
+        <v>24.05</v>
       </c>
       <c r="U33" t="n">
-        <v>139.83</v>
+        <v>339.03</v>
       </c>
       <c r="V33" t="n">
-        <v>93.22</v>
+        <v>226.02</v>
       </c>
       <c r="W33" t="n">
-        <v>21.44</v>
+        <v>13.72</v>
       </c>
       <c r="X33" t="n">
-        <v>3.19</v>
+        <v>19.52</v>
       </c>
       <c r="Y33" t="n">
-        <v>167.22</v>
+        <v>37.58</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-02-12 11:29:17</t>
+          <t>2026-02-12 17:17:37</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6075,7 +5625,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.469</t>
+          <t>Mouse session - Score: 0.614</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6103,7 +5653,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11:29:17</t>
+          <t>17:17:37</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6112,58 +5662,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>5650</v>
+        <v>12786</v>
       </c>
       <c r="L34" t="n">
-        <v>5650</v>
+        <v>12786</v>
       </c>
       <c r="M34" t="n">
-        <v>27266.14</v>
+        <v>11556.96</v>
       </c>
       <c r="N34" t="n">
-        <v>16359.69</v>
+        <v>6934.18</v>
       </c>
       <c r="O34" t="n">
-        <v>10906.46</v>
+        <v>4622.78</v>
       </c>
       <c r="P34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R34" t="n">
-        <v>98.7</v>
+        <v>86.45</v>
       </c>
       <c r="S34" t="n">
-        <v>276.24</v>
+        <v>133.69</v>
       </c>
       <c r="T34" t="n">
-        <v>43.16</v>
+        <v>23.36</v>
       </c>
       <c r="U34" t="n">
-        <v>165.75</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="V34" t="n">
-        <v>110.5</v>
+        <v>53.47</v>
       </c>
       <c r="W34" t="n">
-        <v>22.69</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="X34" t="n">
-        <v>21.29</v>
+        <v>14.94</v>
       </c>
       <c r="Y34" t="n">
-        <v>98.7</v>
+        <v>86.45</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.469</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-02-13 12:57:24</t>
+          <t>2026-02-13 15:31:04</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6173,7 +5723,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.633</t>
+          <t>Mouse session - Score: 0.476</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6201,7 +5751,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12:57:24</t>
+          <t>15:31:04</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6210,58 +5760,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>25357</v>
+        <v>24275</v>
       </c>
       <c r="L35" t="n">
-        <v>25357</v>
+        <v>24275</v>
       </c>
       <c r="M35" t="n">
-        <v>25227.69</v>
+        <v>5902.06</v>
       </c>
       <c r="N35" t="n">
-        <v>15136.61</v>
+        <v>3541.23</v>
       </c>
       <c r="O35" t="n">
-        <v>10091.07</v>
+        <v>2360.82</v>
       </c>
       <c r="P35" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q35" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R35" t="n">
-        <v>170.48</v>
+        <v>98.91</v>
       </c>
       <c r="S35" t="n">
-        <v>147.98</v>
+        <v>59.67</v>
       </c>
       <c r="T35" t="n">
-        <v>13</v>
+        <v>38.36</v>
       </c>
       <c r="U35" t="n">
-        <v>88.79000000000001</v>
+        <v>35.8</v>
       </c>
       <c r="V35" t="n">
-        <v>59.19</v>
+        <v>23.87</v>
       </c>
       <c r="W35" t="n">
-        <v>4.67</v>
+        <v>2.07</v>
       </c>
       <c r="X35" t="n">
-        <v>19.42</v>
+        <v>27.52</v>
       </c>
       <c r="Y35" t="n">
-        <v>170.48</v>
+        <v>98.91</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.633</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-02-13 16:16:37</t>
+          <t>2026-02-13 15:40:01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6271,7 +5821,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.883</t>
+          <t>Mouse session - Score: 0.551</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6286,11 +5836,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -6299,7 +5849,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>16:16:37</t>
+          <t>15:40:01</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6308,58 +5858,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>14126</v>
+        <v>16158</v>
       </c>
       <c r="L36" t="n">
-        <v>14126</v>
+        <v>16158</v>
       </c>
       <c r="M36" t="n">
-        <v>25298.34</v>
+        <v>15185.84</v>
       </c>
       <c r="N36" t="n">
-        <v>15179.01</v>
+        <v>9111.51</v>
       </c>
       <c r="O36" t="n">
-        <v>10119.34</v>
+        <v>6074.34</v>
       </c>
       <c r="P36" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="Q36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R36" t="n">
-        <v>131.85</v>
+        <v>109.02</v>
       </c>
       <c r="S36" t="n">
-        <v>191.87</v>
+        <v>139.29</v>
       </c>
       <c r="T36" t="n">
-        <v>6.19</v>
+        <v>27.07</v>
       </c>
       <c r="U36" t="n">
-        <v>115.12</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="V36" t="n">
-        <v>76.75</v>
+        <v>55.72</v>
       </c>
       <c r="W36" t="n">
-        <v>10.76</v>
+        <v>15.52</v>
       </c>
       <c r="X36" t="n">
-        <v>7.98</v>
+        <v>28.32</v>
       </c>
       <c r="Y36" t="n">
-        <v>131.85</v>
+        <v>109.02</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.883</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-02-13 10:18:38</t>
+          <t>2026-02-13 11:01:54</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6369,7 +5919,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.555</t>
+          <t>Mouse session - Score: 0.605</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6397,7 +5947,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10:18:38</t>
+          <t>11:01:54</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6406,58 +5956,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>6779</v>
+        <v>13907</v>
       </c>
       <c r="L37" t="n">
-        <v>6779</v>
+        <v>13907</v>
       </c>
       <c r="M37" t="n">
-        <v>29081.85</v>
+        <v>33694.16</v>
       </c>
       <c r="N37" t="n">
-        <v>17449.11</v>
+        <v>20216.5</v>
       </c>
       <c r="O37" t="n">
-        <v>11632.74</v>
+        <v>13477.67</v>
       </c>
       <c r="P37" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q37" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="R37" t="n">
-        <v>135.66</v>
+        <v>113.45</v>
       </c>
       <c r="S37" t="n">
-        <v>214.38</v>
+        <v>296.99</v>
       </c>
       <c r="T37" t="n">
-        <v>19.46</v>
+        <v>28.1</v>
       </c>
       <c r="U37" t="n">
-        <v>128.63</v>
+        <v>178.2</v>
       </c>
       <c r="V37" t="n">
-        <v>85.75</v>
+        <v>118.8</v>
       </c>
       <c r="W37" t="n">
-        <v>7.78</v>
+        <v>4.89</v>
       </c>
       <c r="X37" t="n">
-        <v>13.75</v>
+        <v>28.58</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.66</v>
+        <v>113.45</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.555</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-02-16 17:20:34</t>
+          <t>2026-02-15 10:58:34</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6467,7 +6017,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.473</t>
+          <t>Mouse session - Score: 0.498</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6477,7 +6027,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MOUSE_20260216_000</t>
+          <t>MOUSE_20260215_000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6490,12 +6040,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>17:20:34</t>
+          <t>10:58:34</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6504,58 +6054,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>29023</v>
+        <v>26125</v>
       </c>
       <c r="L38" t="n">
-        <v>29023</v>
+        <v>26125</v>
       </c>
       <c r="M38" t="n">
-        <v>38965.9</v>
+        <v>39189.94</v>
       </c>
       <c r="N38" t="n">
-        <v>23379.54</v>
+        <v>23513.96</v>
       </c>
       <c r="O38" t="n">
-        <v>15586.36</v>
+        <v>15675.98</v>
       </c>
       <c r="P38" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>88.19</v>
+        <v>160.24</v>
       </c>
       <c r="S38" t="n">
-        <v>441.83</v>
+        <v>244.57</v>
       </c>
       <c r="T38" t="n">
-        <v>8.359999999999999</v>
+        <v>6.19</v>
       </c>
       <c r="U38" t="n">
-        <v>265.1</v>
+        <v>146.74</v>
       </c>
       <c r="V38" t="n">
-        <v>176.73</v>
+        <v>97.83</v>
       </c>
       <c r="W38" t="n">
-        <v>13.37</v>
+        <v>12.27</v>
       </c>
       <c r="X38" t="n">
-        <v>3.69</v>
+        <v>5.71</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.19</v>
+        <v>160.24</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.473</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-02-16 15:21:43</t>
+          <t>2026-02-15 12:51:23</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6565,7 +6115,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.495</t>
+          <t>Mouse session - Score: 0.616</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6575,7 +6125,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MOUSE_20260216_001</t>
+          <t>MOUSE_20260215_001</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6588,12 +6138,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>15:21:43</t>
+          <t>12:51:23</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6602,58 +6152,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>5182</v>
+        <v>27476</v>
       </c>
       <c r="L39" t="n">
-        <v>5182</v>
+        <v>27476</v>
       </c>
       <c r="M39" t="n">
-        <v>23933.84</v>
+        <v>9119.92</v>
       </c>
       <c r="N39" t="n">
-        <v>14360.3</v>
+        <v>5471.95</v>
       </c>
       <c r="O39" t="n">
-        <v>9573.540000000001</v>
+        <v>3647.97</v>
       </c>
       <c r="P39" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="R39" t="n">
-        <v>35.56</v>
+        <v>57.86</v>
       </c>
       <c r="S39" t="n">
-        <v>673.01</v>
+        <v>157.61</v>
       </c>
       <c r="T39" t="n">
-        <v>11.65</v>
+        <v>35.38</v>
       </c>
       <c r="U39" t="n">
-        <v>403.81</v>
+        <v>94.56</v>
       </c>
       <c r="V39" t="n">
-        <v>269.2</v>
+        <v>63.04</v>
       </c>
       <c r="W39" t="n">
-        <v>12.99</v>
+        <v>13.02</v>
       </c>
       <c r="X39" t="n">
-        <v>8.16</v>
+        <v>12.59</v>
       </c>
       <c r="Y39" t="n">
-        <v>35.56</v>
+        <v>57.86</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.495</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-02-16 16:03:30</t>
+          <t>2026-02-15 13:54:27</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6663,7 +6213,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.610</t>
+          <t>Mouse session - Score: 0.475</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6673,7 +6223,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MOUSE_20260216_002</t>
+          <t>MOUSE_20260215_002</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6686,12 +6236,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>16:03:30</t>
+          <t>13:54:27</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6700,58 +6250,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>13766</v>
+        <v>18944</v>
       </c>
       <c r="L40" t="n">
-        <v>13766</v>
+        <v>18944</v>
       </c>
       <c r="M40" t="n">
-        <v>9008.16</v>
+        <v>25697.64</v>
       </c>
       <c r="N40" t="n">
-        <v>5404.9</v>
+        <v>15418.58</v>
       </c>
       <c r="O40" t="n">
-        <v>3603.27</v>
+        <v>10279.06</v>
       </c>
       <c r="P40" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q40" t="n">
         <v>12</v>
       </c>
       <c r="R40" t="n">
-        <v>111.81</v>
+        <v>78.52</v>
       </c>
       <c r="S40" t="n">
-        <v>80.56999999999999</v>
+        <v>327.29</v>
       </c>
       <c r="T40" t="n">
-        <v>21.57</v>
+        <v>23.66</v>
       </c>
       <c r="U40" t="n">
-        <v>48.34</v>
+        <v>196.38</v>
       </c>
       <c r="V40" t="n">
-        <v>32.23</v>
+        <v>130.92</v>
       </c>
       <c r="W40" t="n">
-        <v>16.42</v>
+        <v>4.51</v>
       </c>
       <c r="X40" t="n">
-        <v>29.79</v>
+        <v>9.32</v>
       </c>
       <c r="Y40" t="n">
-        <v>111.81</v>
+        <v>78.52</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.61</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-02-17 17:44:19</t>
+          <t>2026-02-16 15:19:18</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6761,7 +6311,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.628</t>
+          <t>Mouse session - Score: 0.645</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6771,7 +6321,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MOUSE_20260217_000</t>
+          <t>MOUSE_20260216_000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6784,12 +6334,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>17:44:19</t>
+          <t>15:19:18</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6798,58 +6348,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>10849</v>
+        <v>11826</v>
       </c>
       <c r="L41" t="n">
-        <v>10849</v>
+        <v>11826</v>
       </c>
       <c r="M41" t="n">
-        <v>36745.26</v>
+        <v>31142.68</v>
       </c>
       <c r="N41" t="n">
-        <v>22047.16</v>
+        <v>18685.61</v>
       </c>
       <c r="O41" t="n">
-        <v>14698.1</v>
+        <v>12457.07</v>
       </c>
       <c r="P41" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q41" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R41" t="n">
-        <v>149.48</v>
+        <v>164.15</v>
       </c>
       <c r="S41" t="n">
-        <v>245.81</v>
+        <v>189.72</v>
       </c>
       <c r="T41" t="n">
-        <v>5.79</v>
+        <v>46.9</v>
       </c>
       <c r="U41" t="n">
-        <v>147.49</v>
+        <v>113.83</v>
       </c>
       <c r="V41" t="n">
-        <v>98.33</v>
+        <v>75.89</v>
       </c>
       <c r="W41" t="n">
-        <v>22.01</v>
+        <v>22.42</v>
       </c>
       <c r="X41" t="n">
-        <v>7.31</v>
+        <v>24.3</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.48</v>
+        <v>164.15</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.628</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-02-17 16:03:14</t>
+          <t>2026-02-16 09:12:21</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6859,7 +6409,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.505</t>
+          <t>Mouse session - Score: 0.921</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6869,25 +6419,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOUSE_20260217_001</t>
+          <t>MOUSE_20260216_001</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>16:03:14</t>
+          <t>09:12:21</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6896,58 +6446,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>23488</v>
+        <v>20563</v>
       </c>
       <c r="L42" t="n">
-        <v>23488</v>
+        <v>20563</v>
       </c>
       <c r="M42" t="n">
-        <v>11659.33</v>
+        <v>18688.87</v>
       </c>
       <c r="N42" t="n">
-        <v>6995.6</v>
+        <v>11213.32</v>
       </c>
       <c r="O42" t="n">
-        <v>4663.73</v>
+        <v>7475.55</v>
       </c>
       <c r="P42" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="Q42" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R42" t="n">
-        <v>161.29</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="S42" t="n">
-        <v>72.29000000000001</v>
+        <v>201.34</v>
       </c>
       <c r="T42" t="n">
-        <v>27.69</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="U42" t="n">
-        <v>43.37</v>
+        <v>120.81</v>
       </c>
       <c r="V42" t="n">
-        <v>28.91</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="W42" t="n">
-        <v>5.71</v>
+        <v>4.69</v>
       </c>
       <c r="X42" t="n">
-        <v>18.85</v>
+        <v>24.37</v>
       </c>
       <c r="Y42" t="n">
-        <v>161.29</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.505</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-02-17 14:15:50</t>
+          <t>2026-02-16 14:07:44</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6957,7 +6507,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.634</t>
+          <t>Mouse session - Score: 0.879</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6967,25 +6517,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MOUSE_20260217_002</t>
+          <t>MOUSE_20260216_002</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>14:15:50</t>
+          <t>14:07:44</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6994,58 +6544,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>19987</v>
+        <v>25508</v>
       </c>
       <c r="L43" t="n">
-        <v>19987</v>
+        <v>25508</v>
       </c>
       <c r="M43" t="n">
-        <v>13532.7</v>
+        <v>11444.97</v>
       </c>
       <c r="N43" t="n">
-        <v>8119.62</v>
+        <v>6866.98</v>
       </c>
       <c r="O43" t="n">
-        <v>5413.08</v>
+        <v>4577.99</v>
       </c>
       <c r="P43" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R43" t="n">
-        <v>60.32</v>
+        <v>117.15</v>
       </c>
       <c r="S43" t="n">
-        <v>224.36</v>
+        <v>97.7</v>
       </c>
       <c r="T43" t="n">
-        <v>40.11</v>
+        <v>44.28</v>
       </c>
       <c r="U43" t="n">
-        <v>134.61</v>
+        <v>58.62</v>
       </c>
       <c r="V43" t="n">
-        <v>89.73999999999999</v>
+        <v>39.08</v>
       </c>
       <c r="W43" t="n">
-        <v>15.08</v>
+        <v>18</v>
       </c>
       <c r="X43" t="n">
-        <v>23.58</v>
+        <v>2.71</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.32</v>
+        <v>117.15</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.634</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-02-18 15:02:52</t>
+          <t>2026-02-17 09:48:29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -7055,7 +6605,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.620</t>
+          <t>Mouse session - Score: 0.513</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7065,7 +6615,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOUSE_20260218_000</t>
+          <t>MOUSE_20260217_000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7078,12 +6628,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>15:02:52</t>
+          <t>09:48:29</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -7092,58 +6642,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>6085</v>
+        <v>5001</v>
       </c>
       <c r="L44" t="n">
-        <v>6085</v>
+        <v>5001</v>
       </c>
       <c r="M44" t="n">
-        <v>8936.639999999999</v>
+        <v>8418.52</v>
       </c>
       <c r="N44" t="n">
-        <v>5361.98</v>
+        <v>5051.11</v>
       </c>
       <c r="O44" t="n">
-        <v>3574.66</v>
+        <v>3367.41</v>
       </c>
       <c r="P44" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="Q44" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>73.17</v>
+        <v>33.43</v>
       </c>
       <c r="S44" t="n">
-        <v>122.13</v>
+        <v>251.79</v>
       </c>
       <c r="T44" t="n">
-        <v>23.31</v>
+        <v>36.38</v>
       </c>
       <c r="U44" t="n">
-        <v>73.28</v>
+        <v>151.07</v>
       </c>
       <c r="V44" t="n">
-        <v>48.85</v>
+        <v>100.72</v>
       </c>
       <c r="W44" t="n">
-        <v>5.83</v>
+        <v>28</v>
       </c>
       <c r="X44" t="n">
-        <v>12.37</v>
+        <v>24.09</v>
       </c>
       <c r="Y44" t="n">
-        <v>73.17</v>
+        <v>33.43</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.62</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-02-18 17:36:47</t>
+          <t>2026-02-17 11:40:56</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -7153,7 +6703,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.514</t>
+          <t>Mouse session - Score: 0.836</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7163,25 +6713,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MOUSE_20260218_001</t>
+          <t>MOUSE_20260217_001</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>17:36:47</t>
+          <t>11:40:56</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -7190,58 +6740,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>5855</v>
+        <v>21811</v>
       </c>
       <c r="L45" t="n">
-        <v>5855</v>
+        <v>21811</v>
       </c>
       <c r="M45" t="n">
-        <v>5863.52</v>
+        <v>18212.28</v>
       </c>
       <c r="N45" t="n">
-        <v>3518.11</v>
+        <v>10927.37</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.41</v>
+        <v>7284.91</v>
       </c>
       <c r="P45" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="Q45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R45" t="n">
-        <v>133.79</v>
+        <v>166.88</v>
       </c>
       <c r="S45" t="n">
-        <v>43.83</v>
+        <v>109.13</v>
       </c>
       <c r="T45" t="n">
-        <v>40.14</v>
+        <v>31.5</v>
       </c>
       <c r="U45" t="n">
-        <v>26.3</v>
+        <v>65.48</v>
       </c>
       <c r="V45" t="n">
-        <v>17.53</v>
+        <v>43.65</v>
       </c>
       <c r="W45" t="n">
-        <v>13.57</v>
+        <v>25.2</v>
       </c>
       <c r="X45" t="n">
-        <v>21.97</v>
+        <v>26.54</v>
       </c>
       <c r="Y45" t="n">
-        <v>133.79</v>
+        <v>166.88</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.514</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-02-18 13:17:40</t>
+          <t>2026-02-17 10:27:06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -7251,7 +6801,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.573</t>
+          <t>Mouse session - Score: 0.490</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7261,7 +6811,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOUSE_20260218_002</t>
+          <t>MOUSE_20260217_002</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -7274,12 +6824,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>13:17:40</t>
+          <t>10:27:06</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7288,52 +6838,52 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>10026</v>
+        <v>12579</v>
       </c>
       <c r="L46" t="n">
-        <v>10026</v>
+        <v>12579</v>
       </c>
       <c r="M46" t="n">
-        <v>20945.17</v>
+        <v>7397.3</v>
       </c>
       <c r="N46" t="n">
-        <v>12567.1</v>
+        <v>4438.38</v>
       </c>
       <c r="O46" t="n">
-        <v>8378.07</v>
+        <v>2958.92</v>
       </c>
       <c r="P46" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q46" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="R46" t="n">
-        <v>105.25</v>
+        <v>152.12</v>
       </c>
       <c r="S46" t="n">
-        <v>199.01</v>
+        <v>48.63</v>
       </c>
       <c r="T46" t="n">
-        <v>39.99</v>
+        <v>6.76</v>
       </c>
       <c r="U46" t="n">
-        <v>119.41</v>
+        <v>29.18</v>
       </c>
       <c r="V46" t="n">
-        <v>79.59999999999999</v>
+        <v>19.45</v>
       </c>
       <c r="W46" t="n">
-        <v>11.41</v>
+        <v>22.67</v>
       </c>
       <c r="X46" t="n">
-        <v>10.71</v>
+        <v>24.01</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.25</v>
+        <v>152.12</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.573</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -7347,7 +6897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7410,20 +6960,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-02-02 09:18:00</t>
+          <t>2026-02-02 14:09:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-02 12:28:20</t>
+          <t>2026-02-02 16:11:20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11420</v>
+        <v>7340</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>03:10:00</t>
+          <t>02:02:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -7440,7 +6990,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BROWSER_20260203_00</t>
+          <t>BROWSER_20260202_01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7450,25 +7000,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-02-03 11:26:00</t>
+          <t>2026-02-02 11:56:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-02-03 15:46:52</t>
+          <t>2026-02-02 14:40:20</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15652</v>
+        <v>9860</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>04:20:00</t>
+          <t>02:44:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7480,7 +7030,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20260204_00</t>
+          <t>BROWSER_20260203_00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7490,25 +7040,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-02-04 13:50:00</t>
+          <t>2026-02-03 15:21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02-04 16:09:46</t>
+          <t>2026-02-03 17:19:25</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8386</v>
+        <v>7105</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02:19:00</t>
+          <t>01:58:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -7520,7 +7070,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BROWSER_20260204_01</t>
+          <t>BROWSER_20260203_01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7530,25 +7080,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-02-04 10:40:00</t>
+          <t>2026-02-03 15:28:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-04 12:33:55</t>
+          <t>2026-02-03 17:42:57</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6835</v>
+        <v>8097</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>01:53:00</t>
+          <t>02:14:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7560,7 +7110,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BROWSER_20260205_00</t>
+          <t>BROWSER_20260204_00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7570,25 +7120,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-02-05 08:51:00</t>
+          <t>2026-02-04 13:52:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-05 10:36:52</t>
+          <t>2026-02-04 18:46:07</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6352</v>
+        <v>17647</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>01:45:00</t>
+          <t>04:54:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7600,7 +7150,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BROWSER_20260205_01</t>
+          <t>BROWSER_20260205_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7610,20 +7160,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-02-05 12:29:00</t>
+          <t>2026-02-05 09:38:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-05 14:35:38</t>
+          <t>2026-02-05 11:14:09</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7598</v>
+        <v>5769</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02:06:00</t>
+          <t>01:36:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7640,7 +7190,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20260206_00</t>
+          <t>BROWSER_20260205_01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7650,25 +7200,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-02-06 12:23:00</t>
+          <t>2026-02-05 10:02:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-06 16:13:26</t>
+          <t>2026-02-05 12:52:05</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13826</v>
+        <v>10205</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>03:50:00</t>
+          <t>02:50:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7680,7 +7230,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20260209_00</t>
+          <t>BROWSER_20260206_00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7690,25 +7240,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-02-09 08:39:00</t>
+          <t>2026-02-06 08:25:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-09 10:25:27</t>
+          <t>2026-02-06 13:41:59</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6387</v>
+        <v>19019</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>01:46:00</t>
+          <t>05:16:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7720,7 +7270,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20260209_01</t>
+          <t>BROWSER_20260209_00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7730,20 +7280,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-02-09 13:28:00</t>
+          <t>2026-02-09 13:21:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-02-09 16:17:08</t>
+          <t>2026-02-09 15:41:59</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10148</v>
+        <v>8459</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02:49:00</t>
+          <t>02:20:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7760,7 +7310,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260210_00</t>
+          <t>BROWSER_20260209_01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7770,25 +7320,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-02-10 11:13:00</t>
+          <t>2026-02-09 08:09:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-10 14:49:00</t>
+          <t>2026-02-09 10:27:24</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12960</v>
+        <v>8304</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>03:36:00</t>
+          <t>02:18:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7800,7 +7350,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260211_00</t>
+          <t>BROWSER_20260210_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7810,25 +7360,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-02-11 08:42:00</t>
+          <t>2026-02-10 15:35:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-11 10:17:00</t>
+          <t>2026-02-10 17:07:40</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5700</v>
+        <v>5560</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>01:35:00</t>
+          <t>01:32:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7840,7 +7390,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260211_01</t>
+          <t>BROWSER_20260210_01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7850,25 +7400,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-02-11 12:14:00</t>
+          <t>2026-02-10 10:10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-02-11 14:52:01</t>
+          <t>2026-02-10 12:09:07</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9481</v>
+        <v>7147</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02:38:00</t>
+          <t>01:59:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7880,7 +7430,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260212_00</t>
+          <t>BROWSER_20260211_00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7890,25 +7440,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-02-12 09:15:00</t>
+          <t>2026-02-11 10:10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-02-12 14:42:36</t>
+          <t>2026-02-11 15:33:33</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19656</v>
+        <v>19413</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>05:27:00</t>
+          <t>05:23:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7920,7 +7470,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20260213_00</t>
+          <t>BROWSER_20260212_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7930,25 +7480,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-02-13 14:47:00</t>
+          <t>2026-02-12 13:23:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-02-13 19:15:32</t>
+          <t>2026-02-12 16:02:05</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16112</v>
+        <v>9545</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>04:28:00</t>
+          <t>02:39:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7960,7 +7510,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20260216_00</t>
+          <t>BROWSER_20260212_01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7970,25 +7520,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-02-16 10:02:00</t>
+          <t>2026-02-12 14:08:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-02-16 15:58:52</t>
+          <t>2026-02-12 15:54:08</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21412</v>
+        <v>6368</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>05:56:00</t>
+          <t>01:46:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -8000,7 +7550,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260217_00</t>
+          <t>BROWSER_20260213_00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8010,25 +7560,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-02-17 09:50:00</t>
+          <t>2026-02-13 09:20:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-02-17 15:03:53</t>
+          <t>2026-02-13 12:47:13</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18833</v>
+        <v>12433</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05:13:00</t>
+          <t>03:27:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -8040,7 +7590,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260218_00</t>
+          <t>BROWSER_20260216_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -8050,25 +7600,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-02-18 08:37:00</t>
+          <t>2026-02-16 14:33:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-02-18 11:49:28</t>
+          <t>2026-02-16 17:53:24</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11548</v>
+        <v>12024</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>03:12:00</t>
+          <t>03:20:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -8080,7 +7630,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260219_00</t>
+          <t>BROWSER_20260217_00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -8090,25 +7640,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-02-19 14:14:00</t>
+          <t>2026-02-17 15:15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-02-19 16:05:25</t>
+          <t>2026-02-17 19:41:45</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6685</v>
+        <v>16005</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>01:51:00</t>
+          <t>04:26:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -8120,7 +7670,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20260219_01</t>
+          <t>BROWSER_20260218_00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -8130,25 +7680,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-02-19 12:40:00</t>
+          <t>2026-02-18 12:31:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-02-19 15:34:22</t>
+          <t>2026-02-18 15:27:01</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10462</v>
+        <v>10561</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02:54:00</t>
+          <t>02:56:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -8160,38 +7710,158 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>BROWSER_20260218_01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2026-02-18 11:57:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2026-02-18 14:33:41</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>9401</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>02:36:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BROWSER_20260219_00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-02-19 09:04:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2026-02-19 13:02:10</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>14290</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>03:58:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>BROWSER_20260220_00</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2026-02-20 14:23:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2026-02-20 18:37:17</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>15257</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>04:14:00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2026-02-20 12:25:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026-02-20 14:45:44</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>8444</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>02:20:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BROWSER_20260220_01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:46:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026-02-20 17:49:59</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>7439</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>02:03:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
